--- a/spec/contabilidad/resources/poliza/poliza_C7854.xlsx
+++ b/spec/contabilidad/resources/poliza/poliza_C7854.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="5480" windowWidth="25360" windowHeight="14100" tabRatio="676" activeTab="5"/>
@@ -3714,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="48">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>306</v>
